--- a/qa_qc_lib/kern/data/PermeabilityParallelFail(L).xlsx
+++ b/qa_qc_lib/kern/data/PermeabilityParallelFail(L).xlsx
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -101,13 +101,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -131,8 +124,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -147,31 +185,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,9 +216,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,37 +226,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,7 +241,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,13 +275,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,31 +419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,133 +443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,6 +523,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -532,11 +565,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,205 +618,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1127,8 +1127,8 @@
   <sheetPr/>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2010,7 +2010,9 @@
       <c r="K20" s="8">
         <v>2.5</v>
       </c>
-      <c r="L20" s="8"/>
+      <c r="L20" s="8">
+        <v>-1</v>
+      </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8">
